--- a/data/trans_orig/CLASESOCIAL_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B784245E-DCCC-46C1-BAE9-7E4B309F2788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA5363D-75D8-447A-9B1E-02E543AB94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB37FE9E-73A1-41D5-A3C4-E5B5F9532061}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F1B8950-224D-4748-8FE7-B6D77690177F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="618">
   <si>
     <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2012 (Tasa respuesta: 79,7%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>62,99%</t>
   </si>
   <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>Grupo III</t>
@@ -106,28 +106,28 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>Grupo II</t>
@@ -136,10 +136,10 @@
     <t>6,99%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>2,75%</t>
@@ -148,1717 +148,1732 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>Grupo I</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>Grupo I</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2015 (Tasa respuesta: 80,47%)</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2015 (Tasa respuesta: 80,47%)</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>16,08%</t>
+    <t>16,17%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>18,86%</t>
   </si>
   <si>
     <t>16,98%</t>
@@ -1867,10 +1882,16 @@
     <t>14,76%</t>
   </si>
   <si>
+    <t>18,46%</t>
+  </si>
+  <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>18,18%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECE03B9-119A-4517-8C34-DC2CB79516E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8547D674-FCC9-4A66-9261-2A7125189E75}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2816,13 +2837,13 @@
         <v>53923</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -2831,13 +2852,13 @@
         <v>43576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -2846,13 +2867,13 @@
         <v>97498</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,7 +2929,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2920,13 +2941,13 @@
         <v>542004</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -2935,13 +2956,13 @@
         <v>483987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -2950,13 +2971,13 @@
         <v>1025992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2992,13 @@
         <v>170265</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -2986,13 +3007,13 @@
         <v>88362</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>233</v>
@@ -3001,13 +3022,13 @@
         <v>258627</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3043,13 @@
         <v>105662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3037,13 +3058,13 @@
         <v>90841</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>172</v>
@@ -3052,13 +3073,13 @@
         <v>196503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3094,13 @@
         <v>120498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -3088,13 +3109,13 @@
         <v>75508</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>172</v>
@@ -3103,13 +3124,13 @@
         <v>196005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,7 +3186,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3177,13 +3198,13 @@
         <v>359537</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>287</v>
@@ -3192,13 +3213,13 @@
         <v>316982</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>619</v>
@@ -3207,13 +3228,13 @@
         <v>676519</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3249,13 @@
         <v>139144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3243,13 +3264,13 @@
         <v>50506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>175</v>
@@ -3258,13 +3279,13 @@
         <v>189649</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3300,13 @@
         <v>100726</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -3294,13 +3315,13 @@
         <v>72262</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -3309,13 +3330,13 @@
         <v>172987</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3351,13 @@
         <v>99179</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -3345,13 +3366,13 @@
         <v>67247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -3360,13 +3381,13 @@
         <v>166426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,7 +3443,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3434,13 +3455,13 @@
         <v>372095</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>360</v>
@@ -3449,13 +3470,13 @@
         <v>380012</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>708</v>
@@ -3464,13 +3485,13 @@
         <v>752107</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3506,13 @@
         <v>180621</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -3500,13 +3521,13 @@
         <v>65188</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>241</v>
@@ -3515,13 +3536,13 @@
         <v>245809</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3557,13 @@
         <v>152007</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>131</v>
@@ -3551,13 +3572,13 @@
         <v>139826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>275</v>
@@ -3566,13 +3587,13 @@
         <v>291832</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,10 +3608,10 @@
         <v>154736</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>183</v>
@@ -3602,13 +3623,13 @@
         <v>120143</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>262</v>
@@ -3617,13 +3638,13 @@
         <v>274879</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3712,13 @@
         <v>1669606</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>1414</v>
@@ -3706,13 +3727,13 @@
         <v>1528179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>2984</v>
@@ -3721,13 +3742,13 @@
         <v>3197785</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3763,13 @@
         <v>629415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>244</v>
@@ -3757,13 +3778,13 @@
         <v>260129</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>835</v>
@@ -3772,13 +3793,13 @@
         <v>889544</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3814,13 @@
         <v>418797</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>305</v>
@@ -3808,13 +3829,13 @@
         <v>338011</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>680</v>
@@ -3823,13 +3844,13 @@
         <v>756808</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3865,13 @@
         <v>437211</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>283</v>
@@ -3859,13 +3880,13 @@
         <v>314454</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>687</v>
@@ -3874,13 +3895,13 @@
         <v>751665</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3957,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3957,7 +3978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2645C2C5-2F94-4212-BD86-75336244A1D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A4E30B-02C7-4B9A-BEB1-16FDA23EA4A1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,7 +3995,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4081,13 +4102,13 @@
         <v>76133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -4096,13 +4117,13 @@
         <v>71925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -4111,13 +4132,13 @@
         <v>148058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4153,13 @@
         <v>17136</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4147,13 +4168,13 @@
         <v>4578</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4162,10 +4183,10 @@
         <v>21714</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>242</v>
@@ -4189,7 +4210,7 @@
         <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4392,10 +4413,10 @@
         <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4404,13 +4425,13 @@
         <v>23940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -4419,13 +4440,13 @@
         <v>101108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4461,13 @@
         <v>32982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4455,13 +4476,13 @@
         <v>26857</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -4470,13 +4491,13 @@
         <v>59839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4512,13 @@
         <v>41504</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>119</v>
+        <v>287</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -4506,13 +4527,13 @@
         <v>35871</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>75</v>
@@ -4521,13 +4542,13 @@
         <v>77375</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,7 +4604,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4595,13 +4616,13 @@
         <v>567590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -4610,13 +4631,13 @@
         <v>496015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>1011</v>
@@ -4625,13 +4646,13 @@
         <v>1063606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4667,13 @@
         <v>153245</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -4661,13 +4682,13 @@
         <v>56746</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M15" s="7">
         <v>195</v>
@@ -4676,13 +4697,13 @@
         <v>209990</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>215</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4718,13 @@
         <v>108571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -4712,13 +4733,13 @@
         <v>94968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -4727,13 +4748,13 @@
         <v>203540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4769,13 @@
         <v>112441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -4763,13 +4784,13 @@
         <v>92257</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>189</v>
@@ -4778,13 +4799,13 @@
         <v>204698</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,7 +4861,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4852,13 +4873,13 @@
         <v>414664</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>319</v>
@@ -4867,13 +4888,13 @@
         <v>336796</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M19" s="7">
         <v>701</v>
@@ -4882,13 +4903,13 @@
         <v>751460</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4924,13 @@
         <v>119561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -4918,13 +4939,13 @@
         <v>35211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
@@ -4933,13 +4954,13 @@
         <v>154772</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4975,13 @@
         <v>76862</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -4969,13 +4990,13 @@
         <v>97293</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M21" s="7">
         <v>165</v>
@@ -4984,13 +5005,13 @@
         <v>174156</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5026,13 @@
         <v>80777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -5020,13 +5041,13 @@
         <v>71170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -5035,13 +5056,13 @@
         <v>151947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,7 +5104,7 @@
         <v>1151</v>
       </c>
       <c r="N23" s="7">
-        <v>1232335</v>
+        <v>1232336</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -5097,7 +5118,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5109,13 +5130,13 @@
         <v>353891</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H24" s="7">
         <v>342</v>
@@ -5124,13 +5145,13 @@
         <v>366872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M24" s="7">
         <v>698</v>
@@ -5139,13 +5160,13 @@
         <v>720763</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5181,13 @@
         <v>154804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -5175,13 +5196,13 @@
         <v>45648</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
         <v>200</v>
@@ -5190,13 +5211,13 @@
         <v>200452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5232,13 @@
         <v>149812</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -5226,13 +5247,13 @@
         <v>149556</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>378</v>
+        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>285</v>
@@ -5241,13 +5262,13 @@
         <v>299368</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5283,13 @@
         <v>184088</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H27" s="7">
         <v>134</v>
@@ -5277,13 +5298,13 @@
         <v>144477</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M27" s="7">
         <v>310</v>
@@ -5292,13 +5313,13 @@
         <v>328565</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5387,13 @@
         <v>1770344</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>1497</v>
@@ -5381,13 +5402,13 @@
         <v>1564120</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>3197</v>
@@ -5396,13 +5417,13 @@
         <v>3334464</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5438,13 @@
         <v>521914</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>317</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H30" s="7">
         <v>153</v>
@@ -5432,13 +5453,13 @@
         <v>166123</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>287</v>
+        <v>406</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="M30" s="7">
         <v>655</v>
@@ -5447,13 +5468,13 @@
         <v>688036</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>404</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5489,13 @@
         <v>377227</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="H31" s="7">
         <v>352</v>
@@ -5483,13 +5504,13 @@
         <v>372273</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M31" s="7">
         <v>706</v>
@@ -5498,13 +5519,13 @@
         <v>749500</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5540,13 @@
         <v>429092</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H32" s="7">
         <v>332</v>
@@ -5534,13 +5555,13 @@
         <v>347055</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>115</v>
+        <v>421</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>98</v>
+        <v>422</v>
       </c>
       <c r="M32" s="7">
         <v>728</v>
@@ -5549,13 +5570,13 @@
         <v>776147</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>174</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,7 +5632,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5632,7 +5653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61E0D7F-3D16-4A3C-A770-D5C67523CEF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EFF8E3-C62A-428F-A6AC-B97105645E2B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5649,7 +5670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5756,13 +5777,13 @@
         <v>73476</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H4" s="7">
         <v>142</v>
@@ -5771,13 +5792,13 @@
         <v>74735</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M4" s="7">
         <v>228</v>
@@ -5786,13 +5807,13 @@
         <v>148212</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5828,13 @@
         <v>9416</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>428</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5822,13 +5843,13 @@
         <v>4935</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -5837,13 +5858,13 @@
         <v>14351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5879,13 @@
         <v>4515</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -5873,13 +5894,13 @@
         <v>6528</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -5888,13 +5909,13 @@
         <v>11043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5930,13 @@
         <v>6338</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5924,13 +5945,13 @@
         <v>10570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -5939,13 +5960,13 @@
         <v>16908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6034,13 @@
         <v>334579</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H9" s="7">
         <v>561</v>
@@ -6028,13 +6049,13 @@
         <v>330203</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M9" s="7">
         <v>950</v>
@@ -6043,13 +6064,13 @@
         <v>664782</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6085,13 @@
         <v>70940</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -6079,13 +6100,13 @@
         <v>38766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -6094,13 +6115,13 @@
         <v>109707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6136,13 @@
         <v>48024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>477</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
         <v>78</v>
@@ -6130,13 +6151,13 @@
         <v>49463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
         <v>133</v>
@@ -6145,13 +6166,13 @@
         <v>97487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>477</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6187,13 @@
         <v>54827</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>484</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>485</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H12" s="7">
         <v>85</v>
@@ -6181,13 +6202,13 @@
         <v>52690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>155</v>
       </c>
       <c r="M12" s="7">
         <v>146</v>
@@ -6196,13 +6217,13 @@
         <v>107516</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,7 +6279,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6270,13 +6291,13 @@
         <v>486796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H14" s="7">
         <v>760</v>
@@ -6285,13 +6306,13 @@
         <v>503592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M14" s="7">
         <v>1264</v>
@@ -6300,13 +6321,13 @@
         <v>990388</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6342,13 @@
         <v>194019</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H15" s="7">
         <v>86</v>
@@ -6336,13 +6357,13 @@
         <v>55050</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="M15" s="7">
         <v>238</v>
@@ -6351,13 +6372,13 @@
         <v>249070</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6393,13 @@
         <v>129500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>503</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>137</v>
@@ -6387,13 +6408,13 @@
         <v>101753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>467</v>
+        <v>44</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M16" s="7">
         <v>258</v>
@@ -6402,13 +6423,13 @@
         <v>231254</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6444,13 @@
         <v>127095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>510</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H17" s="7">
         <v>170</v>
@@ -6438,13 +6459,13 @@
         <v>128854</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>517</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="M17" s="7">
         <v>293</v>
@@ -6453,13 +6474,13 @@
         <v>255950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,7 +6536,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6527,13 +6548,13 @@
         <v>313117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="H19" s="7">
         <v>482</v>
@@ -6542,13 +6563,13 @@
         <v>452037</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="M19" s="7">
         <v>791</v>
@@ -6557,13 +6578,13 @@
         <v>765155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6599,13 @@
         <v>108679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>526</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -6593,13 +6614,13 @@
         <v>31370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
         <v>154</v>
@@ -6608,13 +6629,13 @@
         <v>140049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6650,13 @@
         <v>114475</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="H21" s="7">
         <v>129</v>
@@ -6644,13 +6665,13 @@
         <v>90917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
@@ -6659,13 +6680,13 @@
         <v>205391</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6701,13 @@
         <v>122203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>541</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H22" s="7">
         <v>145</v>
@@ -6695,13 +6716,13 @@
         <v>104132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -6710,13 +6731,13 @@
         <v>226335</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,7 +6793,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6784,13 +6805,13 @@
         <v>351825</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H24" s="7">
         <v>574</v>
@@ -6799,13 +6820,13 @@
         <v>413133</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="M24" s="7">
         <v>949</v>
@@ -6814,13 +6835,13 @@
         <v>764958</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,13 +6856,13 @@
         <v>116334</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>307</v>
+        <v>564</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -6850,13 +6871,13 @@
         <v>52904</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>567</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>568</v>
       </c>
       <c r="M25" s="7">
         <v>215</v>
@@ -6865,13 +6886,13 @@
         <v>169238</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +6907,13 @@
         <v>177541</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -6901,13 +6922,13 @@
         <v>167062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="M26" s="7">
         <v>425</v>
@@ -6916,13 +6937,13 @@
         <v>344603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6958,13 @@
         <v>219750</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -6952,13 +6973,13 @@
         <v>189022</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>576</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="M27" s="7">
         <v>514</v>
@@ -6967,13 +6988,13 @@
         <v>408771</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,16 +7059,16 @@
         <v>1663</v>
       </c>
       <c r="D29" s="7">
-        <v>1559794</v>
+        <v>1559793</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>581</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="H29" s="7">
         <v>2519</v>
@@ -7056,28 +7077,28 @@
         <v>1773701</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="M29" s="7">
         <v>4182</v>
       </c>
       <c r="N29" s="7">
-        <v>3333495</v>
+        <v>3333494</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7113,13 @@
         <v>499389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="H30" s="7">
         <v>288</v>
@@ -7107,13 +7128,13 @@
         <v>183026</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>48</v>
+        <v>601</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="M30" s="7">
         <v>776</v>
@@ -7122,13 +7143,13 @@
         <v>682415</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>596</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7164,13 @@
         <v>474054</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>599</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>590</v>
@@ -7158,28 +7179,28 @@
         <v>415723</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>600</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>607</v>
       </c>
       <c r="M31" s="7">
         <v>1069</v>
       </c>
       <c r="N31" s="7">
-        <v>889778</v>
+        <v>889777</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>343</v>
+        <v>468</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7215,13 @@
         <v>530212</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>605</v>
+        <v>140</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="H32" s="7">
         <v>685</v>
@@ -7209,13 +7230,13 @@
         <v>485268</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>614</v>
       </c>
       <c r="M32" s="7">
         <v>1239</v>
@@ -7224,13 +7245,13 @@
         <v>1015480</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>170</v>
+        <v>616</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,7 +7263,7 @@
         <v>3184</v>
       </c>
       <c r="D33" s="7">
-        <v>3063449</v>
+        <v>3063448</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -7272,7 +7293,7 @@
         <v>7266</v>
       </c>
       <c r="N33" s="7">
-        <v>5921167</v>
+        <v>5921166</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -7286,7 +7307,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/CLASESOCIAL_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BA5363D-75D8-447A-9B1E-02E543AB94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{458B3401-3B28-47AB-928C-C4F02F329CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F1B8950-224D-4748-8FE7-B6D77690177F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A19B4C0-A174-40B3-97A0-74210DFD54A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="606">
   <si>
     <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2012 (Tasa respuesta: 79,7%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Grupo IV</t>
@@ -76,25 +76,25 @@
     <t>62,99%</t>
   </si>
   <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>61,47%</t>
+    <t>61,14%</t>
   </si>
   <si>
     <t>75,13%</t>
@@ -106,28 +106,28 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
   <si>
     <t>8,24%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>Grupo II</t>
@@ -136,10 +136,10 @@
     <t>6,99%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
   </si>
   <si>
     <t>2,75%</t>
@@ -148,16 +148,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,92%</t>
+    <t>9,65%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>Grupo I</t>
@@ -166,1696 +166,1660 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2016 (Tasa respuesta: 80,47%)</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>15,47%</t>
   </si>
   <si>
     <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2015 (Tasa respuesta: 80,47%)</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>Clase social manual de la persona entrevistada (clases de I a V, SEE) en 2023 (Tasa respuesta: 83,11%)</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
   </si>
   <si>
     <t>12,74%</t>
@@ -2303,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8547D674-FCC9-4A66-9261-2A7125189E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F12E24E-2B50-4EAE-98BA-C4970365BA7F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2738,10 +2702,10 @@
         <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -2750,13 +2714,13 @@
         <v>49989</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -2765,13 +2729,13 @@
         <v>164315</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2750,13 @@
         <v>52507</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -2801,13 +2765,13 @@
         <v>33051</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>73</v>
@@ -2816,13 +2780,13 @@
         <v>85558</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2801,13 @@
         <v>53923</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -2852,13 +2816,13 @@
         <v>43576</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -2867,13 +2831,13 @@
         <v>97498</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,7 +2893,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2941,13 +2905,13 @@
         <v>542004</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -2956,13 +2920,13 @@
         <v>483987</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -2971,13 +2935,13 @@
         <v>1025992</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2956,13 @@
         <v>170265</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -3007,13 +2971,13 @@
         <v>88362</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>233</v>
@@ -3022,13 +2986,13 @@
         <v>258627</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3007,13 @@
         <v>105662</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3058,13 +3022,13 @@
         <v>90841</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>172</v>
@@ -3073,13 +3037,13 @@
         <v>196503</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3058,13 @@
         <v>120498</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -3109,13 +3073,13 @@
         <v>75508</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>172</v>
@@ -3124,13 +3088,13 @@
         <v>196005</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,7 +3150,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3198,13 +3162,13 @@
         <v>359537</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>287</v>
@@ -3213,13 +3177,13 @@
         <v>316982</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>619</v>
@@ -3228,13 +3192,13 @@
         <v>676519</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3213,13 @@
         <v>139144</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3264,13 +3228,13 @@
         <v>50506</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>175</v>
@@ -3279,13 +3243,13 @@
         <v>189649</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3264,13 @@
         <v>100726</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -3315,13 +3279,13 @@
         <v>72262</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -3330,7 +3294,7 @@
         <v>172987</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>147</v>
@@ -3527,7 +3491,7 @@
         <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>241</v>
@@ -3536,7 +3500,7 @@
         <v>245809</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>174</v>
@@ -3575,10 +3539,10 @@
         <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>275</v>
@@ -3587,13 +3551,13 @@
         <v>291832</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3572,13 @@
         <v>154736</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>111</v>
@@ -3623,13 +3587,13 @@
         <v>120143</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>262</v>
@@ -3638,13 +3602,13 @@
         <v>274879</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3676,13 @@
         <v>1669606</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>1414</v>
@@ -3727,13 +3691,13 @@
         <v>1528179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>2984</v>
@@ -3742,13 +3706,13 @@
         <v>3197785</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3727,13 @@
         <v>629415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>244</v>
@@ -3778,13 +3742,13 @@
         <v>260129</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>835</v>
@@ -3793,13 +3757,13 @@
         <v>889544</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3778,13 @@
         <v>418797</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>305</v>
@@ -3829,13 +3793,13 @@
         <v>338011</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>680</v>
@@ -3844,13 +3808,13 @@
         <v>756808</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3829,13 @@
         <v>437211</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>283</v>
@@ -3880,13 +3844,13 @@
         <v>314454</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>687</v>
@@ -3895,13 +3859,13 @@
         <v>751665</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,7 +3921,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3978,7 +3942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A4E30B-02C7-4B9A-BEB1-16FDA23EA4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100274A2-20A7-428E-B14D-8C8999A74457}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3995,7 +3959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4102,13 +4066,13 @@
         <v>76133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -4117,13 +4081,13 @@
         <v>71925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -4132,13 +4096,13 @@
         <v>148058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4117,13 @@
         <v>17136</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4168,13 +4132,13 @@
         <v>4578</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4183,13 +4147,13 @@
         <v>21714</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4168,13 @@
         <v>9000</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4219,13 +4183,13 @@
         <v>3599</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4234,13 +4198,13 @@
         <v>12599</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4219,13 @@
         <v>10282</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4270,13 +4234,13 @@
         <v>3279</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4285,13 +4249,13 @@
         <v>13562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4323,13 @@
         <v>358067</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>289</v>
@@ -4374,13 +4338,13 @@
         <v>292511</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>639</v>
@@ -4389,13 +4353,13 @@
         <v>650579</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4374,13 @@
         <v>77168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4425,13 +4389,13 @@
         <v>23940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -4440,13 +4404,13 @@
         <v>101108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4425,13 @@
         <v>32982</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -4476,13 +4440,13 @@
         <v>26857</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -4491,13 +4455,13 @@
         <v>59839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4476,13 @@
         <v>41504</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -4527,13 +4491,13 @@
         <v>35871</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M12" s="7">
         <v>75</v>
@@ -4542,13 +4506,13 @@
         <v>77375</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,7 +4568,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4616,13 +4580,13 @@
         <v>567590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -4631,13 +4595,13 @@
         <v>496015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>1011</v>
@@ -4646,13 +4610,13 @@
         <v>1063606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4631,13 @@
         <v>153245</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
@@ -4682,13 +4646,13 @@
         <v>56746</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>309</v>
+        <v>121</v>
       </c>
       <c r="M15" s="7">
         <v>195</v>
@@ -4697,13 +4661,13 @@
         <v>209990</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4682,13 @@
         <v>108571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -4733,13 +4697,13 @@
         <v>94968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -4748,13 +4712,13 @@
         <v>203540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4733,13 @@
         <v>112441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -4784,10 +4748,10 @@
         <v>92257</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>325</v>
@@ -4802,10 +4766,10 @@
         <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4825,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4873,13 +4837,13 @@
         <v>414664</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>319</v>
@@ -4888,10 +4852,10 @@
         <v>336796</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>332</v>
@@ -4945,7 +4909,7 @@
         <v>340</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
@@ -4954,13 +4918,13 @@
         <v>154772</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4939,13 @@
         <v>76862</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -4990,13 +4954,13 @@
         <v>97293</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M21" s="7">
         <v>165</v>
@@ -5005,13 +4969,13 @@
         <v>174156</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>350</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +4990,13 @@
         <v>80777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -5041,13 +5005,13 @@
         <v>71170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -5056,13 +5020,13 @@
         <v>151947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>358</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5094,13 @@
         <v>353891</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H24" s="7">
         <v>342</v>
@@ -5145,13 +5109,13 @@
         <v>366872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M24" s="7">
         <v>698</v>
@@ -5160,13 +5124,13 @@
         <v>720763</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5145,13 @@
         <v>154804</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -5196,13 +5160,13 @@
         <v>45648</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M25" s="7">
         <v>200</v>
@@ -5211,13 +5175,13 @@
         <v>200452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>376</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5196,13 @@
         <v>149812</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H26" s="7">
         <v>138</v>
@@ -5247,13 +5211,13 @@
         <v>149556</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>63</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>285</v>
@@ -5262,13 +5226,13 @@
         <v>299368</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5247,13 @@
         <v>184088</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H27" s="7">
         <v>134</v>
@@ -5298,13 +5262,13 @@
         <v>144477</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M27" s="7">
         <v>310</v>
@@ -5313,13 +5277,13 @@
         <v>328565</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5351,13 @@
         <v>1770344</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>396</v>
+        <v>126</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
         <v>1497</v>
@@ -5402,13 +5366,13 @@
         <v>1564120</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M29" s="7">
         <v>3197</v>
@@ -5417,13 +5381,13 @@
         <v>3334464</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5402,13 @@
         <v>521914</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H30" s="7">
         <v>153</v>
@@ -5453,13 +5417,13 @@
         <v>166123</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M30" s="7">
         <v>655</v>
@@ -5468,13 +5432,13 @@
         <v>688036</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>405</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,10 +5456,10 @@
         <v>326</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H31" s="7">
         <v>352</v>
@@ -5504,13 +5468,13 @@
         <v>372273</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M31" s="7">
         <v>706</v>
@@ -5519,13 +5483,13 @@
         <v>749500</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>418</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5504,13 @@
         <v>429092</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H32" s="7">
         <v>332</v>
@@ -5555,13 +5519,13 @@
         <v>347055</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>422</v>
+        <v>139</v>
       </c>
       <c r="M32" s="7">
         <v>728</v>
@@ -5570,13 +5534,13 @@
         <v>776147</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,7 +5596,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5653,7 +5617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EFF8E3-C62A-428F-A6AC-B97105645E2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6A1480-486C-42B6-BFAF-7DDCC83FBD7C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5670,7 +5634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5777,13 +5741,13 @@
         <v>73476</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H4" s="7">
         <v>142</v>
@@ -5792,13 +5756,13 @@
         <v>74735</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M4" s="7">
         <v>228</v>
@@ -5807,13 +5771,13 @@
         <v>148212</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5792,13 @@
         <v>9416</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5843,13 +5807,13 @@
         <v>4935</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -5858,13 +5822,13 @@
         <v>14351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5843,13 @@
         <v>4515</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -5894,13 +5858,13 @@
         <v>6528</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -5909,13 +5873,13 @@
         <v>11043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5894,13 @@
         <v>6338</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -5945,13 +5909,13 @@
         <v>10570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -5960,13 +5924,13 @@
         <v>16908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>452</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +5998,13 @@
         <v>334579</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H9" s="7">
         <v>561</v>
@@ -6049,13 +6013,13 @@
         <v>330203</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M9" s="7">
         <v>950</v>
@@ -6064,13 +6028,13 @@
         <v>664782</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6049,13 @@
         <v>70940</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -6100,13 +6064,13 @@
         <v>38766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
@@ -6115,13 +6079,13 @@
         <v>109707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>74</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6100,13 @@
         <v>48024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>476</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>78</v>
@@ -6151,13 +6115,13 @@
         <v>49463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>133</v>
@@ -6166,13 +6130,13 @@
         <v>97487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6151,13 @@
         <v>54827</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H12" s="7">
         <v>85</v>
@@ -6202,10 +6166,10 @@
         <v>52690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>155</v>
@@ -6217,13 +6181,13 @@
         <v>107516</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>490</v>
+        <v>106</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,7 +6243,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6291,13 +6255,13 @@
         <v>486796</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H14" s="7">
         <v>760</v>
@@ -6306,13 +6270,13 @@
         <v>503592</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>1264</v>
@@ -6321,13 +6285,13 @@
         <v>990388</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6306,13 @@
         <v>194019</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H15" s="7">
         <v>86</v>
@@ -6357,13 +6321,13 @@
         <v>55050</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M15" s="7">
         <v>238</v>
@@ -6372,13 +6336,13 @@
         <v>249070</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6357,13 @@
         <v>129500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H16" s="7">
         <v>137</v>
@@ -6408,13 +6372,13 @@
         <v>101753</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="M16" s="7">
         <v>258</v>
@@ -6423,13 +6387,13 @@
         <v>231254</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6408,13 @@
         <v>127095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>514</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H17" s="7">
         <v>170</v>
@@ -6459,13 +6423,13 @@
         <v>128854</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>517</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="M17" s="7">
         <v>293</v>
@@ -6474,13 +6438,13 @@
         <v>255950</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>520</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6500,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6548,13 +6512,13 @@
         <v>313117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="H19" s="7">
         <v>482</v>
@@ -6563,13 +6527,13 @@
         <v>452037</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="M19" s="7">
         <v>791</v>
@@ -6578,13 +6542,13 @@
         <v>765155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6563,13 @@
         <v>108679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -6614,13 +6578,13 @@
         <v>31370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
         <v>154</v>
@@ -6629,13 +6593,13 @@
         <v>140049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>536</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,13 +6614,13 @@
         <v>114475</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H21" s="7">
         <v>129</v>
@@ -6665,13 +6629,13 @@
         <v>90917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>409</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
@@ -6680,13 +6644,13 @@
         <v>205391</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,13 +6665,13 @@
         <v>122203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="H22" s="7">
         <v>145</v>
@@ -6716,13 +6680,13 @@
         <v>104132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -6731,13 +6695,13 @@
         <v>226335</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6769,13 @@
         <v>351825</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="H24" s="7">
         <v>574</v>
@@ -6820,13 +6784,13 @@
         <v>413133</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="M24" s="7">
         <v>949</v>
@@ -6835,13 +6799,13 @@
         <v>764958</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>560</v>
+        <v>358</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,13 +6820,13 @@
         <v>116334</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -6871,13 +6835,13 @@
         <v>52904</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="M25" s="7">
         <v>215</v>
@@ -6886,13 +6850,13 @@
         <v>169238</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>569</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6871,13 @@
         <v>177541</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -6922,13 +6886,13 @@
         <v>167062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="M26" s="7">
         <v>425</v>
@@ -6937,13 +6901,13 @@
         <v>344603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,13 +6922,13 @@
         <v>219750</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -6973,13 +6937,13 @@
         <v>189022</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="M27" s="7">
         <v>514</v>
@@ -6988,13 +6952,13 @@
         <v>408771</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7026,13 @@
         <v>1559793</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>576</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>2519</v>
@@ -7077,13 +7041,13 @@
         <v>1773701</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>4182</v>
@@ -7092,13 +7056,13 @@
         <v>3333494</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7077,13 @@
         <v>499389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>598</v>
+        <v>227</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="H30" s="7">
         <v>288</v>
@@ -7128,13 +7092,13 @@
         <v>183026</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="M30" s="7">
         <v>776</v>
@@ -7143,13 +7107,13 @@
         <v>682415</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7128,13 @@
         <v>474054</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>605</v>
+        <v>315</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="H31" s="7">
         <v>590</v>
@@ -7179,13 +7143,13 @@
         <v>415723</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>593</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="M31" s="7">
         <v>1069</v>
@@ -7194,13 +7158,13 @@
         <v>889777</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,13 +7179,13 @@
         <v>530212</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="H32" s="7">
         <v>685</v>
@@ -7230,13 +7194,13 @@
         <v>485268</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="M32" s="7">
         <v>1239</v>
@@ -7245,13 +7209,13 @@
         <v>1015480</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,7 +7271,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
